--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\GitHub\POM_STORE\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA40E67F-8F40-452E-946B-4BD091E63469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7C4D40-1263-4811-9466-A96911C3FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Email</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Telephone</t>
+  </si>
+  <si>
+    <t>Samsung A70</t>
   </si>
 </sst>
 </file>
@@ -628,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -683,61 +686,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>12345678</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>740100</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>15</v>
       </c>
     </row>
